--- a/BAT01N.xlsx
+++ b/BAT01N.xlsx
@@ -103,10 +103,10 @@
     <t>ENERG.MAX AA/LR6 4'S</t>
   </si>
   <si>
-    <t>10015436</t>
-  </si>
-  <si>
-    <t>ENERG.MAX AAA/LR3.2S</t>
+    <t>20112819</t>
+  </si>
+  <si>
+    <t>ENERGZER AAA 4S-AP92</t>
   </si>
   <si>
     <t>20056340</t>

--- a/BAT01N.xlsx
+++ b/BAT01N.xlsx
@@ -1547,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">

--- a/BAT01N.xlsx
+++ b/BAT01N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="150">
   <si>
     <t/>
   </si>
@@ -175,12 +175,6 @@
     <t>ABC ALK AAA-LR03/2MP</t>
   </si>
   <si>
-    <t>10000610</t>
-  </si>
-  <si>
-    <t>ABC BATT. S/PWR 9V</t>
-  </si>
-  <si>
     <t>10025645</t>
   </si>
   <si>
@@ -295,6 +289,9 @@
     <t>PKEMON KRT.SCAR SV1S</t>
   </si>
   <si>
+    <t>PT</t>
+  </si>
+  <si>
     <t>20129265</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
   </si>
   <si>
     <t>POKEMON SET SPC SV5S</t>
-  </si>
-  <si>
-    <t>PT</t>
   </si>
   <si>
     <t>20134684</t>
@@ -859,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1324,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1341,21 +1335,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1367,15 +1361,15 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1387,15 +1381,15 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1407,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,10 +1418,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,7 +1441,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,10 +1518,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1538,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,10 +1558,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,10 +1578,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,10 +1598,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,38 +1618,38 @@
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1667,15 +1661,15 @@
         <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -1687,15 +1681,15 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1707,15 +1701,15 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -1727,15 +1721,15 @@
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -1747,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,10 +1798,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,10 +1861,10 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -1884,7 +1878,10 @@
         <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,10 +1958,10 @@
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,10 +2018,10 @@
         <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,7 +2038,7 @@
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2058,33 +2055,33 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,13 +2095,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,13 +2115,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,13 +2135,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,13 +2155,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,33 +2195,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
